--- a/Big Tech/Adobe.xlsx
+++ b/Big Tech/Adobe.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E97A8-06D3-764F-B3DF-4B4ABDDBB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CC049-467D-6F4F-9703-117D59EB9C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="500" windowWidth="22620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -425,9 +448,6 @@
   </si>
   <si>
     <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Adobe</t>
   </si>
   <si>
     <t>Weighted Average Cost of Capital</t>
@@ -872,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -945,13 +965,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,16 +998,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1007,12 +1023,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2377,6 +2390,510 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>http://es.wikipedia.org/wiki/Adobe_(empresa)</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_503c684ccc667ad525fe1d703881df2c&amp;qlt=95</v>
+    <v>2</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=adobe+systems</v>
+    <v>Image of ADOBE INC.</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mv7w&amp;q=XNAS%3aADBE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>ADOBE INC. (XNAS:ADBE)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1mv7w</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>473.49</v>
+    <v>274.73</v>
+    <v>1.3071999999999999</v>
+    <v>3.47</v>
+    <v>9.0860000000000003E-3</v>
+    <v>0.03</v>
+    <v>7.7850000000000008E-5</v>
+    <v>USD</v>
+    <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
+    <v>29239</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
+    <v>385.73</v>
+    <v>3</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.999507580469</v>
+    <v>4</v>
+    <v>380.26</v>
+    <v>176769200000</v>
+    <v>ADOBE INC.</v>
+    <v>ADOBE INC.</v>
+    <v>382.29</v>
+    <v>37.656300000000002</v>
+    <v>381.9</v>
+    <v>385.37</v>
+    <v>385.4</v>
+    <v>458700000</v>
+    <v>ADBE</v>
+    <v>ADOBE INC. (XNAS:ADBE)</v>
+    <v>3063428</v>
+    <v>3777245</v>
+    <v>1997</v>
+  </rv>
+  <rv s="4">
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="46">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="7">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
+    </spb>
+    <spb s="5">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="6">
+      <v>Powered by Refinitiv</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="2">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2677,10 +3194,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP87" sqref="AP87"/>
+      <selection pane="bottomRight" activeCell="AN120" sqref="AN120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2691,8 +3208,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>126</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1986</v>
@@ -4848,15 +5365,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>8.5771327956378514</v>
+        <v>10.040281722140179</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>31.751261564339782</v>
+        <v>37.167619848612276</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>20.417658193618173</v>
+        <v>23.900648999459168</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -12776,10 +13293,10 @@
       <c r="AL83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS83" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT83" s="63"/>
+      <c r="AS83" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT83" s="59"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12896,10 +13413,10 @@
       <c r="AL84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS84" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT84" s="65"/>
+      <c r="AS84" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT84" s="61"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13017,7 +13534,7 @@
         <v>547000000</v>
       </c>
       <c r="AS85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT85" s="24">
         <f>AL17</f>
@@ -13140,7 +13657,7 @@
         <v>122000000</v>
       </c>
       <c r="AS86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT86" s="24">
         <f>AL56</f>
@@ -13263,7 +13780,7 @@
         <v>7838000000</v>
       </c>
       <c r="AS87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT87" s="24">
         <f>AL61</f>
@@ -13386,7 +13903,7 @@
         <v>-442000000</v>
       </c>
       <c r="AS88" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AT88" s="34">
         <f>AT85/(AT86+AT87)</f>
@@ -13792,7 +14309,7 @@
         <v>-955000000</v>
       </c>
       <c r="AS91" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT91" s="34">
         <f>AT89/AT90</f>
@@ -13915,7 +14432,7 @@
         <v>953000000</v>
       </c>
       <c r="AS92" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT92" s="36">
         <f>AT88*(1-AT91)</f>
@@ -14037,10 +14554,10 @@
       <c r="AL93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS93" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT93" s="65"/>
+      <c r="AS93" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT93" s="61"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14158,7 +14675,7 @@
         <v>-570000000</v>
       </c>
       <c r="AS94" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AT94" s="37">
         <v>4.095E-2</v>
@@ -14279,11 +14796,12 @@
       <c r="AL95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS95" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT95" s="39">
-        <v>1.27</v>
+      <c r="AS95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT95" s="63" cm="1">
+        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
+        <v>1.3071999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14402,7 +14920,7 @@
         <v>278000000</v>
       </c>
       <c r="AS96" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AT96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -14524,11 +15042,11 @@
         <v>-6550000000</v>
       </c>
       <c r="AS97" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.56235E-2</v>
+        <v>9.7224959999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -14646,10 +15164,10 @@
       <c r="AL98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS98" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT98" s="65"/>
+      <c r="AS98" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT98" s="61"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14767,7 +15285,7 @@
         <v>-553000000</v>
       </c>
       <c r="AS99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT99" s="24">
         <f>AT86+AT87</f>
@@ -14890,11 +15408,11 @@
         <v>-6825000000</v>
       </c>
       <c r="AS100" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>2.9767029465054419E-2</v>
+        <v>2.5539932812281219E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15012,11 +15530,12 @@
       <c r="AL101" s="1">
         <v>-51000000</v>
       </c>
-      <c r="AS101" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT101" s="40">
-        <v>151009000000</v>
+      <c r="AS101" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT101" s="49" cm="1">
+        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
+        <v>176769200000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15135,11 +15654,11 @@
         <v>392000000</v>
       </c>
       <c r="AS102" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.97023297053494562</v>
+        <v>0.97446006718771883</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15258,11 +15777,11 @@
         <v>3844000000</v>
       </c>
       <c r="AS103" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT103" s="41">
+        <v>144</v>
+      </c>
+      <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>155642000000</v>
+        <v>181402200000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15380,10 +15899,10 @@
       <c r="AL104" s="11">
         <v>4236000000</v>
       </c>
-      <c r="AS104" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT104" s="65"/>
+      <c r="AS104" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT104" s="61"/>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15545,7 +16064,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.3346715952183176E-2</v>
+        <v>9.5230591756669411E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15663,33 +16182,33 @@
       <c r="AL106" s="1">
         <v>7396000000</v>
       </c>
-      <c r="AM106" s="42">
+      <c r="AM106" s="62">
         <f>AL106*(1+$AT$106)</f>
         <v>8192275100.9941807</v>
       </c>
-      <c r="AN106" s="42">
+      <c r="AN106" s="62">
         <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
         <v>9074279520.0607376</v>
       </c>
-      <c r="AO106" s="42">
+      <c r="AO106" s="62">
         <f t="shared" si="9"/>
         <v>10051243127.589914</v>
       </c>
-      <c r="AP106" s="42">
+      <c r="AP106" s="62">
         <f t="shared" si="9"/>
         <v>11133389508.949938</v>
       </c>
-      <c r="AQ106" s="42">
+      <c r="AQ106" s="62">
         <f t="shared" si="9"/>
         <v>12332042950.762629</v>
       </c>
-      <c r="AR106" s="43" t="s">
+      <c r="AR106" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AS106" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT106" s="45">
+      <c r="AT106" s="41">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>0.10766293956113859</v>
       </c>
@@ -15733,140 +16252,141 @@
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
-      <c r="AM107" s="43"/>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="46">
+      <c r="AM107" s="39"/>
+      <c r="AN107" s="39"/>
+      <c r="AO107" s="39"/>
+      <c r="AP107" s="39"/>
+      <c r="AQ107" s="42">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>184944424153.09537</v>
-      </c>
-      <c r="AR107" s="47" t="s">
+        <v>179983447502.8656</v>
+      </c>
+      <c r="AR107" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AS107" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT107" s="49">
+      <c r="AT107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="46">
+      <c r="AM108" s="42">
         <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
         <v>8192275100.9941807</v>
       </c>
-      <c r="AN108" s="46">
+      <c r="AN108" s="42">
         <f t="shared" si="10"/>
         <v>9074279520.0607376</v>
       </c>
-      <c r="AO108" s="46">
+      <c r="AO108" s="42">
         <f t="shared" si="10"/>
         <v>10051243127.589914</v>
       </c>
-      <c r="AP108" s="46">
+      <c r="AP108" s="42">
         <f>AP107+AP106</f>
         <v>11133389508.949938</v>
       </c>
-      <c r="AQ108" s="46">
+      <c r="AQ108" s="42">
         <f>AQ107+AQ106</f>
-        <v>197276467103.858</v>
-      </c>
-      <c r="AR108" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS108" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT108" s="51">
+        <v>192315490453.62823</v>
+      </c>
+      <c r="AR108" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS108" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT108" s="47">
         <f>AT105</f>
-        <v>9.3346715952183176E-2</v>
+        <v>9.5230591756669411E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN109" s="67"/>
+      <c r="AM109" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN109" s="57"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN110" s="53">
+      <c r="AM110" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN110" s="49">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>156830998789.29807</v>
+        <v>152468701083.12094</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN111" s="53">
+      <c r="AM111" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN111" s="49">
         <f>AL40</f>
         <v>6096000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN112" s="53">
+      <c r="AM112" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN112" s="49">
         <f>AT99</f>
         <v>4633000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN113" s="53">
+      <c r="AM113" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN113" s="49">
         <f>AN110+AN111-AN112</f>
-        <v>158293998789.29807</v>
+        <v>153931701083.12094</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN114" s="54">
+      <c r="AM114" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN114" s="50">
         <f>AL34*(1+(5*AR16))</f>
         <v>442010686.09300858</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN115" s="56">
+      <c r="AM115" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN115" s="52">
         <f>AN113/AN114</f>
-        <v>358.12256076539649</v>
+        <v>348.25334754628625</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN116" s="58">
-        <v>329.3</v>
+      <c r="AM116" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN116" s="64" cm="1">
+        <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>385.4</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN117" s="60">
+      <c r="AM117" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN117" s="54">
         <f>AN115/AN116-1</f>
-        <v>8.7526756044325804E-2</v>
+        <v>-9.6384671649490716E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN118" s="61" t="str">
+      <c r="AM118" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN118" s="55" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Big Tech/Adobe.xlsx
+++ b/Big Tech/Adobe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CC049-467D-6F4F-9703-117D59EB9C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC4FB8B-625C-9A4F-B94A-F475FED6B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -997,7 +998,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1005,6 +1005,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,9 +1026,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,13 +2538,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>473.49</v>
+    <v>455.91989999999998</v>
     <v>274.73</v>
-    <v>1.3071999999999999</v>
-    <v>3.47</v>
-    <v>9.0860000000000003E-3</v>
-    <v>0.03</v>
-    <v>7.7850000000000008E-5</v>
+    <v>1.3087</v>
+    <v>-1.42</v>
+    <v>-3.7169999999999998E-3</v>
+    <v>-0.9</v>
+    <v>-2.3649999999999999E-3</v>
     <v>USD</v>
     <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
     <v>29239</v>
@@ -2551,26 +2552,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>385.73</v>
+    <v>382.46</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.999507580469</v>
+    <v>45022.992562685155</v>
     <v>4</v>
-    <v>380.26</v>
-    <v>176769200000</v>
+    <v>375.99</v>
+    <v>174581200000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>382.29</v>
-    <v>37.656300000000002</v>
-    <v>381.9</v>
-    <v>385.37</v>
-    <v>385.4</v>
+    <v>379.31</v>
+    <v>37.668100000000003</v>
+    <v>382.02</v>
+    <v>380.6</v>
+    <v>379.7</v>
     <v>458700000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>3063428</v>
-    <v>3777245</v>
+    <v>1836025</v>
+    <v>3520705</v>
     <v>1997</v>
   </rv>
   <rv s="4">
@@ -3197,7 +3198,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN120" sqref="AN120"/>
+      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5365,15 +5366,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>10.040281722140179</v>
+        <v>9.9160059070771336</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>37.167619848612276</v>
+        <v>36.707569386038685</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>23.900648999459168</v>
+        <v>23.604813412655488</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -13293,10 +13294,10 @@
       <c r="AL83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS83" s="58" t="s">
+      <c r="AS83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="59"/>
+      <c r="AT83" s="61"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13413,10 +13414,10 @@
       <c r="AL84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS84" s="60" t="s">
+      <c r="AS84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="61"/>
+      <c r="AT84" s="63"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14554,10 +14555,10 @@
       <c r="AL93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS93" s="60" t="s">
+      <c r="AS93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="61"/>
+      <c r="AT93" s="63"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14799,9 +14800,9 @@
       <c r="AS95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AT95" s="63" cm="1">
+      <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.3071999999999999</v>
+        <v>1.3087</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15046,7 +15047,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.7224959999999999E-2</v>
+        <v>9.728953500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15164,10 +15165,10 @@
       <c r="AL98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS98" s="60" t="s">
+      <c r="AS98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="61"/>
+      <c r="AT98" s="63"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15412,7 +15413,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>2.5539932812281219E-2</v>
+        <v>2.5851746122796074E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15535,7 +15536,7 @@
       </c>
       <c r="AT101" s="49" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>176769200000</v>
+        <v>174581200000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15658,7 +15659,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.97446006718771883</v>
+        <v>0.97414825387720394</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15781,7 +15782,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>181402200000</v>
+        <v>179214200000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15899,10 +15900,10 @@
       <c r="AL104" s="11">
         <v>4236000000</v>
       </c>
-      <c r="AS104" s="60" t="s">
+      <c r="AS104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="61"/>
+      <c r="AT104" s="63"/>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16064,7 +16065,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.5230591756669411E-2</v>
+        <v>9.5269148429486597E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16182,23 +16183,23 @@
       <c r="AL106" s="1">
         <v>7396000000</v>
       </c>
-      <c r="AM106" s="62">
+      <c r="AM106" s="55">
         <f>AL106*(1+$AT$106)</f>
         <v>8192275100.9941807</v>
       </c>
-      <c r="AN106" s="62">
+      <c r="AN106" s="55">
         <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
         <v>9074279520.0607376</v>
       </c>
-      <c r="AO106" s="62">
+      <c r="AO106" s="55">
         <f t="shared" si="9"/>
         <v>10051243127.589914</v>
       </c>
-      <c r="AP106" s="62">
+      <c r="AP106" s="55">
         <f t="shared" si="9"/>
         <v>11133389508.949938</v>
       </c>
-      <c r="AQ106" s="62">
+      <c r="AQ106" s="55">
         <f t="shared" si="9"/>
         <v>12332042950.762629</v>
       </c>
@@ -16258,7 +16259,7 @@
       <c r="AP107" s="39"/>
       <c r="AQ107" s="42">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>179983447502.8656</v>
+        <v>179884690608.08353</v>
       </c>
       <c r="AR107" s="43" t="s">
         <v>148</v>
@@ -16289,7 +16290,7 @@
       </c>
       <c r="AQ108" s="42">
         <f>AQ107+AQ106</f>
-        <v>192315490453.62823</v>
+        <v>192216733558.84616</v>
       </c>
       <c r="AR108" s="43" t="s">
         <v>144</v>
@@ -16299,14 +16300,14 @@
       </c>
       <c r="AT108" s="47">
         <f>AT105</f>
-        <v>9.5230591756669411E-2</v>
+        <v>9.5269148429486597E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="56" t="s">
+      <c r="AM109" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="57"/>
+      <c r="AN109" s="59"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="48" t="s">
@@ -16314,7 +16315,7 @@
       </c>
       <c r="AN110" s="49">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>152468701083.12094</v>
+        <v>152381873125.07651</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16341,7 +16342,7 @@
       </c>
       <c r="AN113" s="49">
         <f>AN110+AN111-AN112</f>
-        <v>153931701083.12094</v>
+        <v>153844873125.07651</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16357,34 +16358,34 @@
       <c r="AM115" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AN115" s="52">
+      <c r="AN115" s="64">
         <f>AN113/AN114</f>
-        <v>348.25334754628625</v>
+        <v>348.05690895152753</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="AN116" s="64" cm="1">
+      <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>385.4</v>
+        <v>379.7</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="53" t="s">
+      <c r="AM117" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="AN117" s="54">
+      <c r="AN117" s="53">
         <f>AN115/AN116-1</f>
-        <v>-9.6384671649490716E-2</v>
+        <v>-8.3337084668086536E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="53" t="s">
+      <c r="AM118" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="AN118" s="55" t="str">
+      <c r="AN118" s="54" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
